--- a/Data/PTT.xlsx
+++ b/Data/PTT.xlsx
@@ -431,7 +431,7 @@
       <c r="B1" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 北陸新幹線(金澤-敦賀)大致底定延期一年
+ 北陸新幹線(金澤-敦賀)大致底定延期一年
 </t>
         </is>
       </c>
@@ -445,7 +445,7 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Re: [情報] 電車でGO新作 PS4/NS登場 
+Re:  電車でGO新作 PS4/NS登場 
 </t>
         </is>
       </c>
@@ -459,7 +459,7 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] JR西日本將加速裁撤綠窗口業務
+ JR西日本將加速裁撤綠窗口業務
 </t>
         </is>
       </c>
@@ -473,7 +473,7 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 105機車故障
+ 105機車故障
 </t>
         </is>
       </c>
@@ -487,7 +487,7 @@
       <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] JR東日本取消20-21跨年通宵運轉
+ JR東日本取消20-21跨年通宵運轉
 </t>
         </is>
       </c>
@@ -501,7 +501,7 @@
       <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 鳳鳴車站後天動工
+ 鳳鳴車站後天動工
 </t>
         </is>
       </c>
@@ -515,7 +515,7 @@
       <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] JR北海道、東日本、東海2021春季改點整理
+ JR北海道、東日本、東海2021春季改點整理
 </t>
         </is>
       </c>
@@ -529,7 +529,7 @@
       <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] JR西日本2021春季改點整理
+ JR西日本2021春季改點整理
 </t>
         </is>
       </c>
@@ -543,7 +543,7 @@
       <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 109年11月鐵道建設進度
+ 109年11月鐵道建設進度
 </t>
         </is>
       </c>
@@ -557,7 +557,7 @@
       <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 南澳=漢本間東線鋼軌斷裂事故
+ 南澳=漢本間東線鋼軌斷裂事故
 </t>
         </is>
       </c>
@@ -571,7 +571,7 @@
       <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] JR東日本北陸新幹線部分列車車內販賣取消
+ JR東日本北陸新幹線部分列車車內販賣取消
 </t>
         </is>
       </c>
@@ -585,7 +585,7 @@
       <c r="B12" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 彰化-台中 號誌故障
+ 彰化-台中 號誌故障
 </t>
         </is>
       </c>
@@ -599,7 +599,7 @@
       <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報]  藍白塗裝莒光今晚回送北廠
+  藍白塗裝莒光今晚回送北廠
 </t>
         </is>
       </c>
@@ -613,7 +613,7 @@
       <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 新幹線エクスプレス予約、スマートEX 規範變更
+ 新幹線エクスプレス予約、スマートEX 規範變更
 </t>
         </is>
       </c>
@@ -627,7 +627,7 @@
       <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 今日510次莒光
+ 今日510次莒光
 </t>
         </is>
       </c>
@@ -641,7 +641,7 @@
       <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 都營地下鐵 大江戶線12/27~1/11起減班3成
+ 都營地下鐵 大江戶線12/27~1/11起減班3成
 </t>
         </is>
       </c>
@@ -655,7 +655,7 @@
       <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 都營地下鐵淺草線將全面開始設置月台門
+ 都營地下鐵淺草線將全面開始設置月台門
 </t>
         </is>
       </c>
@@ -669,7 +669,7 @@
       <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 收藏臺鐵百年風華 2021鐵道月曆限量開賣 
+ 收藏臺鐵百年風華 2021鐵道月曆限量開賣 
 </t>
         </is>
       </c>
@@ -683,7 +683,7 @@
       <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 3231 不明原因一直在慢行
+ 3231 不明原因一直在慢行
 </t>
         </is>
       </c>
@@ -697,7 +697,7 @@
       <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 基隆-七堵 電車線故障
+ 基隆-七堵 電車線故障
 </t>
         </is>
       </c>
@@ -711,7 +711,7 @@
       <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 110年臺鐵春節訂票 1/7東部1/8西部
+ 110年臺鐵春節訂票 1/7東部1/8西部
 </t>
         </is>
       </c>
@@ -725,7 +725,7 @@
       <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 高鐵1538次
+ 高鐵1538次
 </t>
         </is>
       </c>
@@ -739,7 +739,7 @@
       <c r="B23" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Re: [情報] 舊台東線的LDT103
+Re:  舊台東線的LDT103
 </t>
         </is>
       </c>
@@ -753,7 +753,7 @@
       <c r="B24" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Re: [情報] 舊台東線的LDT103
+Re:  舊台東線的LDT103
 </t>
         </is>
       </c>
@@ -767,7 +767,7 @@
       <c r="B25" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 高鐵加開8574次全車自由座列車
+ 高鐵加開8574次全車自由座列車
 </t>
         </is>
       </c>
@@ -781,7 +781,7 @@
       <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 1272事故
+ 1272事故
 </t>
         </is>
       </c>
@@ -795,7 +795,7 @@
       <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 內壢-桃園間死傷事故 (已恢復正常)
+ 內壢-桃園間死傷事故 (已恢復正常)
 </t>
         </is>
       </c>
@@ -809,7 +809,7 @@
       <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Re: [情報] 118社頭員林間出軌
+Re:  118社頭員林間出軌
 </t>
         </is>
       </c>
@@ -823,7 +823,7 @@
       <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 號誌故障
+ 號誌故障
 </t>
         </is>
       </c>
@@ -837,7 +837,7 @@
       <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 關山-瑞源 號誌故障
+ 關山-瑞源 號誌故障
 </t>
         </is>
       </c>
@@ -851,7 +851,7 @@
       <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 新營-林鳳營 外物入侵
+ 新營-林鳳營 外物入侵
 </t>
         </is>
       </c>
@@ -865,7 +865,7 @@
       <c r="B32" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 年末期間JR各社旅客運輸量
+ 年末期間JR各社旅客運輸量
 </t>
         </is>
       </c>
@@ -879,7 +879,7 @@
       <c r="B33" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 鳳林-南平 外物入侵
+ 鳳林-南平 外物入侵
 </t>
         </is>
       </c>
@@ -893,7 +893,7 @@
       <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 74次 4144次機車故障
+ 74次 4144次機車故障
 </t>
         </is>
       </c>
@@ -907,7 +907,7 @@
       <c r="B35" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 台灣高鐵2021春節疏運 加開441班次列車 1
+ 台灣高鐵2021春節疏運 加開441班次列車 1
 </t>
         </is>
       </c>
@@ -921,7 +921,7 @@
       <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 「搭臺鐵　回家鄉、遊花東」大專生指定
+ 「搭臺鐵　回家鄉、遊花東」大專生指定
 </t>
         </is>
       </c>
@@ -935,7 +935,7 @@
       <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 1147次南港後停駛
+ 1147次南港後停駛
 </t>
         </is>
       </c>
@@ -949,7 +949,7 @@
       <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 南港站2A月台列車故障
+ 南港站2A月台列車故障
 </t>
         </is>
       </c>
@@ -963,7 +963,7 @@
       <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 富岡-楊梅 機車故障
+ 富岡-楊梅 機車故障
 </t>
         </is>
       </c>
@@ -977,7 +977,7 @@
       <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 516剛出富岡就掛了
+ 516剛出富岡就掛了
 </t>
         </is>
       </c>
@@ -991,7 +991,7 @@
       <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] JR東日本暫停發售グランクラス和部分列車車內販售
+ JR東日本暫停發售グランクラス和部分列車車內販售
 </t>
         </is>
       </c>
@@ -1005,7 +1005,7 @@
       <c r="B42" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fw: [情報] 淡水信義線全線異常
+Fw:  淡水信義線全線異常
 </t>
         </is>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 運安會發布「0806臺鐵第3231與第129次車
+ 運安會發布「0806臺鐵第3231與第129次車
 </t>
         </is>
       </c>
@@ -1033,7 +1033,7 @@
       <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 7101 通霄站冒進號誌事故事實資料報告
+ 7101 通霄站冒進號誌事故事實資料報告
 </t>
         </is>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] JR東日本 GV-E197、E493系車組發表
+ JR東日本 GV-E197、E493系車組發表
 </t>
         </is>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] JR東日本開放交通系IC卡同站進出
+ JR東日本開放交通系IC卡同站進出
 </t>
         </is>
       </c>
@@ -1075,7 +1075,7 @@
       <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] JR東日本 奧羽本線 赤岩站廢站
+ JR東日本 奧羽本線 赤岩站廢站
 </t>
         </is>
       </c>
@@ -1089,7 +1089,7 @@
       <c r="B48" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fw: [情報] JR羽田機場連通線預定2029營運
+Fw:  JR羽田機場連通線預定2029營運
 </t>
         </is>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] (6.37分發車)4138次暫停松山-旅客送醫
+ (6.37分發車)4138次暫停松山-旅客送醫
 </t>
         </is>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] JR東海將量產HC85系電車
+ JR東海將量產HC85系電車
 </t>
         </is>
       </c>
@@ -1131,7 +1131,7 @@
       <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 561次機車故障
+ 561次機車故障
 </t>
         </is>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Re: [情報] 561次機車故障
+Re:  561次機車故障
 </t>
         </is>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="B53" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 2624機車故障 停開
+ 2624機車故障 停開
 </t>
         </is>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Re: [情報] JR羽田機場連通線預定2029營運
+Re:  JR羽田機場連通線預定2029營運
 </t>
         </is>
       </c>
@@ -1187,7 +1187,7 @@
       <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 109年12月鐵道建設進度
+ 109年12月鐵道建設進度
 </t>
         </is>
       </c>
@@ -1201,7 +1201,7 @@
       <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 146埔心落軌事件
+ 146埔心落軌事件
 </t>
         </is>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 埔心死傷事故，南下北上均有延誤
+ 埔心死傷事故，南下北上均有延誤
 </t>
         </is>
       </c>
@@ -1229,7 +1229,7 @@
       <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] JR東日本完成時速360公里的5G行動通訊
+ JR東日本完成時速360公里的5G行動通訊
 </t>
         </is>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 電子閘門故障？
+ 電子閘門故障？
 </t>
         </is>
       </c>
@@ -1257,7 +1257,7 @@
       <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Re: [情報] JR北海道キハ261系5000番台出廠
+Re:  JR北海道キハ261系5000番台出廠
 </t>
         </is>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 猴硐瑞芳間西正線預定2/3恢復通車
+ 猴硐瑞芳間西正線預定2/3恢復通車
 </t>
         </is>
       </c>
@@ -1285,7 +1285,7 @@
       <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 猴硐-瑞芳通車
+ 猴硐-瑞芳通車
 </t>
         </is>
       </c>
@@ -1299,7 +1299,7 @@
       <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 田中-二水 外物入侵
+ 田中-二水 外物入侵
 </t>
         </is>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 區間車霧霾誤點
+ 區間車霧霾誤點
 </t>
         </is>
       </c>
@@ -1327,7 +1327,7 @@
       <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 二水-田中 路線障礙
+ 二水-田中 路線障礙
 </t>
         </is>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 3238次機車故障
+ 3238次機車故障
 </t>
         </is>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 高鐵發布大學生優惠專案調整公告
+ 高鐵發布大學生優惠專案調整公告
 </t>
         </is>
       </c>
@@ -1369,7 +1369,7 @@
       <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Re: [情報] JR東日本 GV-E197、E493系車組發表
+Re:  JR東日本 GV-E197、E493系車組發表
 </t>
         </is>
       </c>
@@ -1383,7 +1383,7 @@
       <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 富岡號誌故障
+ 富岡號誌故障
 </t>
         </is>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 路線故障(宜蘭線)
+ 路線故障(宜蘭線)
 </t>
         </is>
       </c>
@@ -1411,7 +1411,7 @@
       <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 152車次自強號民雄頭橋急停
+ 152車次自強號民雄頭橋急停
 </t>
         </is>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 佐賀縣與長崎縣達成並行在來線管理費用共
+ 佐賀縣與長崎縣達成並行在來線管理費用共
 </t>
         </is>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="B73" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 554次莒光後龍機車故障
+ 554次莒光後龍機車故障
 </t>
         </is>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Re: [情報] 554次莒光後龍機車故障
+Re:  554次莒光後龍機車故障
 </t>
         </is>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] JR東日本青森站新站體將在3/27啟用
+ JR東日本青森站新站體將在3/27啟用
 </t>
         </is>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="B76" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] JR東日本將開始運用ATO系統進行列車營運
+ JR東日本將開始運用ATO系統進行列車營運
 </t>
         </is>
       </c>
@@ -1495,7 +1495,7 @@
       <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 521次 鶯歌桃園間 機車故障
+ 521次 鶯歌桃園間 機車故障
 </t>
         </is>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 斗六-斗南 外物入侵
+ 斗六-斗南 外物入侵
 </t>
         </is>
       </c>
@@ -1523,7 +1523,7 @@
       <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] JR東日本東北新幹線2/24全線復駛
+ JR東日本東北新幹線2/24全線復駛
 </t>
         </is>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="B80" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 廣島站 新車站大樓意象圖公布
+ 廣島站 新車站大樓意象圖公布
 </t>
         </is>
       </c>
@@ -1551,7 +1551,7 @@
       <c r="B81" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 西武鐵道推出 月繳1200円每天換一瓶茶飲
+ 西武鐵道推出 月繳1200円每天換一瓶茶飲
 </t>
         </is>
       </c>
@@ -1565,7 +1565,7 @@
       <c r="B82" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 本業～～～歸位～～～
+ 本業～～～歸位～～～
 </t>
         </is>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="B83" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] JR東日本在福島縣地震的災損狀況
+ JR東日本在福島縣地震的災損狀況
 </t>
         </is>
       </c>
@@ -1593,7 +1593,7 @@
       <c r="B84" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 龜山-大里 死傷事故
+ 龜山-大里 死傷事故
 </t>
         </is>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="B85" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 臺鐵局指定日期變更車種
+ 臺鐵局指定日期變更車種
 </t>
         </is>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] JR東日本的新幹線大規模整修計畫
+ JR東日本的新幹線大規模整修計畫
 </t>
         </is>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="B87" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 南澳站號誌故障
+ 南澳站號誌故障
 </t>
         </is>
       </c>
@@ -1649,7 +1649,7 @@
       <c r="B88" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 125次自強故障
+ 125次自強故障
 </t>
         </is>
       </c>
@@ -1663,7 +1663,7 @@
       <c r="B89" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 1121次車門故障（已開）
+ 1121次車門故障（已開）
 </t>
         </is>
       </c>
@@ -1677,7 +1677,7 @@
       <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 彰化站進出口閘門故障。
+ 彰化站進出口閘門故障。
 </t>
         </is>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[情報] 二水-林內 車輛故障
+ 二水-林內 車輛故障
 </t>
         </is>
       </c>

--- a/Data/PTT.xlsx
+++ b/Data/PTT.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1692,6 +1692,104 @@
         <is>
           <t xml:space="preserve">
  二水-林內 車輛故障
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2021/03/14</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 554動力異常
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2021/03/14</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 新幹線E4系的新塗裝
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2021/03/15</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 114次機車故障
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2021/03/15</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  109次在楊梅故障
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2021/03/15</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Re:  JR東日本發表E131系電車
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2021/03/16</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 純金打造的國鐵185系電車模型
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2021/03/17</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 臺北站三月台區間車停車位置更改
 </t>
         </is>
       </c>

--- a/Data/PTT.xlsx
+++ b/Data/PTT.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,13 +439,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020/12/17</t>
+          <t>2020/12/18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Re:  電車でGO新作 PS4/NS登場 
+ 105機車故障
 </t>
         </is>
       </c>
@@ -459,7 +459,7 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">
- JR西日本將加速裁撤綠窗口業務
+ 鳳鳴車站後天動工
 </t>
         </is>
       </c>
@@ -467,13 +467,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020/12/18</t>
+          <t>2020/12/19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 105機車故障
+ 109年11月鐵道建設進度
 </t>
         </is>
       </c>
@@ -481,13 +481,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020/12/18</t>
+          <t>2020/12/20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">
- JR東日本取消20-21跨年通宵運轉
+ 南澳=漢本間東線鋼軌斷裂事故
 </t>
         </is>
       </c>
@@ -495,13 +495,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020/12/18</t>
+          <t>2020/12/23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 鳳鳴車站後天動工
+ 彰化-台中 號誌故障
 </t>
         </is>
       </c>
@@ -509,13 +509,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020/12/19</t>
+          <t>2020/12/25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">
- JR北海道、東日本、東海2021春季改點整理
+  藍白塗裝莒光今晚回送北廠
 </t>
         </is>
       </c>
@@ -523,13 +523,13 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020/12/19</t>
+          <t>2020/12/25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">
- JR西日本2021春季改點整理
+ 新幹線エクスプレス予約、スマートEX 規範變更
 </t>
         </is>
       </c>
@@ -537,13 +537,13 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2020/12/19</t>
+          <t>2020/12/26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 109年11月鐵道建設進度
+ 今日510次莒光
 </t>
         </is>
       </c>
@@ -551,13 +551,13 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020/12/20</t>
+          <t>2020/12/26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 南澳=漢本間東線鋼軌斷裂事故
+ 都營地下鐵 大江戶線12/27~1/11起減班3成
 </t>
         </is>
       </c>
@@ -565,13 +565,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020/12/21</t>
+          <t>2020/12/27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">
- JR東日本北陸新幹線部分列車車內販賣取消
+ 都營地下鐵淺草線將全面開始設置月台門
 </t>
         </is>
       </c>
@@ -579,13 +579,13 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020/12/23</t>
+          <t>2020/12/28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 彰化-台中 號誌故障
+ 收藏臺鐵百年風華 2021鐵道月曆限量開賣 
 </t>
         </is>
       </c>
@@ -593,13 +593,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020/12/25</t>
+          <t>2020/12/29</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-  藍白塗裝莒光今晚回送北廠
+ 3231 不明原因一直在慢行
 </t>
         </is>
       </c>
@@ -607,13 +607,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020/12/25</t>
+          <t>2020/12/30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 新幹線エクスプレス予約、スマートEX 規範變更
+ 基隆-七堵 電車線故障
 </t>
         </is>
       </c>
@@ -621,13 +621,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020/12/26</t>
+          <t>2020/12/31</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 今日510次莒光
+ 110年臺鐵春節訂票 1/7東部1/8西部
 </t>
         </is>
       </c>
@@ -635,13 +635,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020/12/26</t>
+          <t>2020/12/31</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 都營地下鐵 大江戶線12/27~1/11起減班3成
+ 高鐵1538次
 </t>
         </is>
       </c>
@@ -649,13 +649,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2020/12/27</t>
+          <t>2021/01/02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 都營地下鐵淺草線將全面開始設置月台門
+ 高鐵加開8574次全車自由座列車
 </t>
         </is>
       </c>
@@ -663,13 +663,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020/12/28</t>
+          <t>2021/01/03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 收藏臺鐵百年風華 2021鐵道月曆限量開賣 
+ 1272事故
 </t>
         </is>
       </c>
@@ -677,13 +677,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020/12/29</t>
+          <t>2021/01/03</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 3231 不明原因一直在慢行
+ 內壢-桃園間死傷事故 (已恢復正常)
 </t>
         </is>
       </c>
@@ -691,13 +691,13 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020/12/30</t>
+          <t>2021/01/06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 基隆-七堵 電車線故障
+ 號誌故障
 </t>
         </is>
       </c>
@@ -705,13 +705,13 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020/12/31</t>
+          <t>2021/01/06</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 110年臺鐵春節訂票 1/7東部1/8西部
+ 關山-瑞源 號誌故障
 </t>
         </is>
       </c>
@@ -719,13 +719,13 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020/12/31</t>
+          <t>2021/01/06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 高鐵1538次
+ 新營-林鳳營 外物入侵
 </t>
         </is>
       </c>
@@ -733,13 +733,13 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020/12/31</t>
+          <t>2021/01/07</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Re:  舊台東線的LDT103
+ 鳳林-南平 外物入侵
 </t>
         </is>
       </c>
@@ -747,13 +747,13 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020/12/31</t>
+          <t>2021/01/08</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Re:  舊台東線的LDT103
+ 74次 4144次機車故障
 </t>
         </is>
       </c>
@@ -761,13 +761,13 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2021/01/02</t>
+          <t>2021/01/08</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 高鐵加開8574次全車自由座列車
+ 台灣高鐵2021春節疏運 加開441班次列車 1
 </t>
         </is>
       </c>
@@ -775,13 +775,13 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2021/01/03</t>
+          <t>2021/01/08</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 1272事故
+ 「搭臺鐵　回家鄉、遊花東」大專生指定
 </t>
         </is>
       </c>
@@ -789,13 +789,13 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2021/01/03</t>
+          <t>2021/01/09</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 內壢-桃園間死傷事故 (已恢復正常)
+ 1147次南港後停駛
 </t>
         </is>
       </c>
@@ -803,13 +803,13 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2021/01/04</t>
+          <t>2021/01/09</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Re:  118社頭員林間出軌
+ 南港站2A月台列車故障
 </t>
         </is>
       </c>
@@ -817,13 +817,13 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2021/01/06</t>
+          <t>2021/01/13</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 號誌故障
+ 富岡-楊梅 機車故障
 </t>
         </is>
       </c>
@@ -831,13 +831,13 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2021/01/06</t>
+          <t>2021/01/13</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 關山-瑞源 號誌故障
+ 516剛出富岡就掛了
 </t>
         </is>
       </c>
@@ -845,13 +845,13 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2021/01/06</t>
+          <t>2021/01/13</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 新營-林鳳營 外物入侵
+Fw:  淡水信義線全線異常
 </t>
         </is>
       </c>
@@ -859,13 +859,13 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2021/01/07</t>
+          <t>2021/01/14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 年末期間JR各社旅客運輸量
+ 運安會發布「0806臺鐵第3231與第129次車
 </t>
         </is>
       </c>
@@ -873,13 +873,13 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2021/01/07</t>
+          <t>2021/01/17</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 鳳林-南平 外物入侵
+ 7101 通霄站冒進號誌事故事實資料報告
 </t>
         </is>
       </c>
@@ -887,13 +887,13 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2021/01/08</t>
+          <t>2021/01/21</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 74次 4144次機車故障
+ (6.37分發車)4138次暫停松山-旅客送醫
 </t>
         </is>
       </c>
@@ -901,13 +901,13 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2021/01/08</t>
+          <t>2021/01/24</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 台灣高鐵2021春節疏運 加開441班次列車 1
+ 561次機車故障
 </t>
         </is>
       </c>
@@ -915,13 +915,13 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2021/01/08</t>
+          <t>2021/01/24</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 「搭臺鐵　回家鄉、遊花東」大專生指定
+ 2624機車故障 停開
 </t>
         </is>
       </c>
@@ -929,13 +929,13 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2021/01/09</t>
+          <t>2021/01/27</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 1147次南港後停駛
+ 109年12月鐵道建設進度
 </t>
         </is>
       </c>
@@ -943,13 +943,13 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2021/01/09</t>
+          <t>2021/01/27</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 南港站2A月台列車故障
+ 146埔心落軌事件
 </t>
         </is>
       </c>
@@ -957,13 +957,13 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021/01/13</t>
+          <t>2021/01/27</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 富岡-楊梅 機車故障
+ 埔心死傷事故，南下北上均有延誤
 </t>
         </is>
       </c>
@@ -971,13 +971,13 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021/01/13</t>
+          <t>2021/01/29</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 516剛出富岡就掛了
+ 電子閘門故障？
 </t>
         </is>
       </c>
@@ -985,13 +985,13 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021/01/13</t>
+          <t>2021/02/01</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve">
- JR東日本暫停發售グランクラス和部分列車車內販售
+ 猴硐瑞芳間西正線預定2/3恢復通車
 </t>
         </is>
       </c>
@@ -999,13 +999,13 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021/01/13</t>
+          <t>2021/02/03</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fw:  淡水信義線全線異常
+ 猴硐-瑞芳通車
 </t>
         </is>
       </c>
@@ -1013,13 +1013,13 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2021/01/14</t>
+          <t>2021/02/06</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 運安會發布「0806臺鐵第3231與第129次車
+ 田中-二水 外物入侵
 </t>
         </is>
       </c>
@@ -1027,13 +1027,13 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2021/01/17</t>
+          <t>2021/02/08</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 7101 通霄站冒進號誌事故事實資料報告
+ 區間車霧霾誤點
 </t>
         </is>
       </c>
@@ -1041,13 +1041,13 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021/01/19</t>
+          <t>2021/02/08</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">
- JR東日本 GV-E197、E493系車組發表
+ 二水-田中 路線障礙
 </t>
         </is>
       </c>
@@ -1055,13 +1055,13 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2021/01/20</t>
+          <t>2021/02/09</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">
- JR東日本開放交通系IC卡同站進出
+ 3238次機車故障
 </t>
         </is>
       </c>
@@ -1069,13 +1069,13 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021/01/20</t>
+          <t>2021/02/09</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">
- JR東日本 奧羽本線 赤岩站廢站
+ 高鐵發布大學生優惠專案調整公告
 </t>
         </is>
       </c>
@@ -1083,13 +1083,13 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2021/01/20</t>
+          <t>2021/02/10</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fw:  JR羽田機場連通線預定2029營運
+ 富岡號誌故障
 </t>
         </is>
       </c>
@@ -1097,13 +1097,13 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021/01/21</t>
+          <t>2021/02/11</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">
- (6.37分發車)4138次暫停松山-旅客送醫
+ 路線故障(宜蘭線)
 </t>
         </is>
       </c>
@@ -1111,13 +1111,13 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2021/01/21</t>
+          <t>2021/02/12</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">
- JR東海將量產HC85系電車
+ 152車次自強號民雄頭橋急停
 </t>
         </is>
       </c>
@@ -1125,13 +1125,13 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2021/01/24</t>
+          <t>2021/02/13</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 561次機車故障
+ 佐賀縣與長崎縣達成並行在來線管理費用共
 </t>
         </is>
       </c>
@@ -1139,13 +1139,13 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2021/01/24</t>
+          <t>2021/02/15</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Re:  561次機車故障
+ 554次莒光後龍機車故障
 </t>
         </is>
       </c>
@@ -1153,13 +1153,13 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2021/01/24</t>
+          <t>2021/02/19</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 2624機車故障 停開
+ 521次 鶯歌桃園間 機車故障
 </t>
         </is>
       </c>
@@ -1167,13 +1167,13 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2021/01/25</t>
+          <t>2021/02/19</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Re:  JR羽田機場連通線預定2029營運
+ 斗六-斗南 外物入侵
 </t>
         </is>
       </c>
@@ -1181,13 +1181,13 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2021/01/27</t>
+          <t>2021/02/21</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 109年12月鐵道建設進度
+ 廣島站 新車站大樓意象圖公布
 </t>
         </is>
       </c>
@@ -1195,13 +1195,13 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2021/01/27</t>
+          <t>2021/02/25</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 146埔心落軌事件
+ 西武鐵道推出 月繳1200円每天換一瓶茶飲
 </t>
         </is>
       </c>
@@ -1209,13 +1209,13 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2021/01/27</t>
+          <t>2021/02/26</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 埔心死傷事故，南下北上均有延誤
+ 本業～～～歸位～～～
 </t>
         </is>
       </c>
@@ -1223,13 +1223,13 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2021/01/28</t>
+          <t>2021/02/26</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">
- JR東日本完成時速360公里的5G行動通訊
+ 龜山-大里 死傷事故
 </t>
         </is>
       </c>
@@ -1237,13 +1237,13 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2021/01/29</t>
+          <t>2021/03/02</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 電子閘門故障？
+ 臺鐵局指定日期變更車種
 </t>
         </is>
       </c>
@@ -1251,13 +1251,13 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2021/01/31</t>
+          <t>2021/03/06</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Re:  JR北海道キハ261系5000番台出廠
+ 南澳站號誌故障
 </t>
         </is>
       </c>
@@ -1265,13 +1265,13 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2021/02/01</t>
+          <t>2021/03/06</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 猴硐瑞芳間西正線預定2/3恢復通車
+ 125次自強故障
 </t>
         </is>
       </c>
@@ -1279,13 +1279,13 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2021/02/03</t>
+          <t>2021/03/10</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 猴硐-瑞芳通車
+ 1121次車門故障（已開）
 </t>
         </is>
       </c>
@@ -1293,13 +1293,13 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2021/02/06</t>
+          <t>2021/03/10</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 田中-二水 外物入侵
+ 彰化站進出口閘門故障。
 </t>
         </is>
       </c>
@@ -1307,13 +1307,13 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2021/02/08</t>
+          <t>2021/03/11</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 區間車霧霾誤點
+ 二水-林內 車輛故障
 </t>
         </is>
       </c>
@@ -1321,13 +1321,13 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2021/02/08</t>
+          <t>2021/03/14</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 二水-田中 路線障礙
+ 554動力異常
 </t>
         </is>
       </c>
@@ -1335,13 +1335,13 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2021/02/09</t>
+          <t>2021/03/14</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 3238次機車故障
+ 新幹線E4系的新塗裝
 </t>
         </is>
       </c>
@@ -1349,13 +1349,13 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2021/02/09</t>
+          <t>2021/03/15</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 高鐵發布大學生優惠專案調整公告
+ 114次機車故障
 </t>
         </is>
       </c>
@@ -1363,13 +1363,13 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2021/02/10</t>
+          <t>2021/03/15</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Re:  JR東日本 GV-E197、E493系車組發表
+  109次在楊梅故障
 </t>
         </is>
       </c>
@@ -1377,13 +1377,13 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2021/02/10</t>
+          <t>2021/03/16</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 富岡號誌故障
+ 純金打造的國鐵185系電車模型
 </t>
         </is>
       </c>
@@ -1391,402 +1391,10 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2021/02/11</t>
+          <t>2021/03/17</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 路線故障(宜蘭線)
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2021/02/12</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 152車次自強號民雄頭橋急停
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2021/02/13</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 佐賀縣與長崎縣達成並行在來線管理費用共
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2021/02/15</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 554次莒光後龍機車故障
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2021/02/15</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Re:  554次莒光後龍機車故障
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2021/02/15</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- JR東日本青森站新站體將在3/27啟用
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2021/02/16</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- JR東日本將開始運用ATO系統進行列車營運
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2021/02/19</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 521次 鶯歌桃園間 機車故障
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2021/02/19</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 斗六-斗南 外物入侵
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2021/02/19</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- JR東日本東北新幹線2/24全線復駛
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2021/02/21</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 廣島站 新車站大樓意象圖公布
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2021/02/25</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 西武鐵道推出 月繳1200円每天換一瓶茶飲
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2021/02/26</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 本業～～～歸位～～～
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2021/02/26</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- JR東日本在福島縣地震的災損狀況
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2021/02/26</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 龜山-大里 死傷事故
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2021/03/02</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 臺鐵局指定日期變更車種
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2021/03/03</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- JR東日本的新幹線大規模整修計畫
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2021/03/06</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 南澳站號誌故障
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2021/03/06</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 125次自強故障
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2021/03/10</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 1121次車門故障（已開）
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2021/03/10</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 彰化站進出口閘門故障。
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2021/03/11</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 二水-林內 車輛故障
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2021/03/14</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 554動力異常
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2021/03/14</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 新幹線E4系的新塗裝
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2021/03/15</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 114次機車故障
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2021/03/15</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-  109次在楊梅故障
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2021/03/15</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Re:  JR東日本發表E131系電車
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2021/03/16</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- 純金打造的國鐵185系電車模型
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2021/03/17</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
         <is>
           <t xml:space="preserve">
  臺北站三月台區間車停車位置更改

--- a/Data/PTT.xlsx
+++ b/Data/PTT.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,13 +425,13 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2020/12/16</t>
+          <t>2020/12/18</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 北陸新幹線(金澤-敦賀)大致底定延期一年
+ 105機車故障
 </t>
         </is>
       </c>
@@ -445,7 +445,7 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 105機車故障
+ 鳳鳴車站後天動工
 </t>
         </is>
       </c>
@@ -453,13 +453,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020/12/18</t>
+          <t>2020/12/19</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 鳳鳴車站後天動工
+ 109年11月鐵道建設進度
 </t>
         </is>
       </c>
@@ -467,13 +467,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020/12/19</t>
+          <t>2020/12/20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 109年11月鐵道建設進度
+ 南澳=漢本間東線鋼軌斷裂事故
 </t>
         </is>
       </c>
@@ -481,13 +481,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020/12/20</t>
+          <t>2020/12/23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 南澳=漢本間東線鋼軌斷裂事故
+ 彰化-台中 號誌故障
 </t>
         </is>
       </c>
@@ -495,13 +495,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020/12/23</t>
+          <t>2020/12/25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 彰化-台中 號誌故障
+  藍白塗裝莒光今晚回送北廠
 </t>
         </is>
       </c>
@@ -515,7 +515,7 @@
       <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-  藍白塗裝莒光今晚回送北廠
+ 新幹線エクスプレス予約、スマートEX 規範變更
 </t>
         </is>
       </c>
@@ -523,13 +523,13 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020/12/25</t>
+          <t>2020/12/26</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 新幹線エクスプレス予約、スマートEX 規範變更
+ 今日510次莒光
 </t>
         </is>
       </c>
@@ -543,7 +543,7 @@
       <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 今日510次莒光
+ 都營地下鐵 大江戶線12/27~1/11起減班3成
 </t>
         </is>
       </c>
@@ -551,13 +551,13 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020/12/26</t>
+          <t>2020/12/27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 都營地下鐵 大江戶線12/27~1/11起減班3成
+ 都營地下鐵淺草線將全面開始設置月台門
 </t>
         </is>
       </c>
@@ -565,13 +565,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020/12/27</t>
+          <t>2020/12/28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 都營地下鐵淺草線將全面開始設置月台門
+ 收藏臺鐵百年風華 2021鐵道月曆限量開賣 
 </t>
         </is>
       </c>
@@ -579,13 +579,13 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020/12/28</t>
+          <t>2020/12/29</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 收藏臺鐵百年風華 2021鐵道月曆限量開賣 
+ 3231 不明原因一直在慢行
 </t>
         </is>
       </c>
@@ -593,13 +593,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020/12/29</t>
+          <t>2020/12/30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 3231 不明原因一直在慢行
+ 基隆-七堵 電車線故障
 </t>
         </is>
       </c>
@@ -607,13 +607,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020/12/30</t>
+          <t>2020/12/31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 基隆-七堵 電車線故障
+ 110年臺鐵春節訂票 1/7東部1/8西部
 </t>
         </is>
       </c>
@@ -627,7 +627,7 @@
       <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 110年臺鐵春節訂票 1/7東部1/8西部
+ 高鐵1538次
 </t>
         </is>
       </c>
@@ -635,13 +635,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020/12/31</t>
+          <t>2021/01/02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 高鐵1538次
+ 高鐵加開8574次全車自由座列車
 </t>
         </is>
       </c>
@@ -649,13 +649,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021/01/02</t>
+          <t>2021/01/03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 高鐵加開8574次全車自由座列車
+ 1272事故
 </t>
         </is>
       </c>
@@ -669,7 +669,7 @@
       <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 1272事故
+ 內壢-桃園間死傷事故 (已恢復正常)
 </t>
         </is>
       </c>
@@ -677,13 +677,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2021/01/03</t>
+          <t>2021/01/06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 內壢-桃園間死傷事故 (已恢復正常)
+ 號誌故障
 </t>
         </is>
       </c>
@@ -697,7 +697,7 @@
       <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 號誌故障
+ 關山-瑞源 號誌故障
 </t>
         </is>
       </c>
@@ -711,7 +711,7 @@
       <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 關山-瑞源 號誌故障
+ 新營-林鳳營 外物入侵
 </t>
         </is>
       </c>
@@ -719,13 +719,13 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2021/01/06</t>
+          <t>2021/01/07</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 新營-林鳳營 外物入侵
+ 鳳林-南平 外物入侵
 </t>
         </is>
       </c>
@@ -733,13 +733,13 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2021/01/07</t>
+          <t>2021/01/08</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 鳳林-南平 外物入侵
+ 74次 4144次機車故障
 </t>
         </is>
       </c>
@@ -753,7 +753,7 @@
       <c r="B24" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 74次 4144次機車故障
+ 台灣高鐵2021春節疏運 加開441班次列車 1
 </t>
         </is>
       </c>
@@ -767,7 +767,7 @@
       <c r="B25" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 台灣高鐵2021春節疏運 加開441班次列車 1
+ 「搭臺鐵　回家鄉、遊花東」大專生指定
 </t>
         </is>
       </c>
@@ -775,13 +775,13 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2021/01/08</t>
+          <t>2021/01/09</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 「搭臺鐵　回家鄉、遊花東」大專生指定
+ 1147次南港後停駛
 </t>
         </is>
       </c>
@@ -795,7 +795,7 @@
       <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 1147次南港後停駛
+ 南港站2A月台列車故障
 </t>
         </is>
       </c>
@@ -803,13 +803,13 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2021/01/09</t>
+          <t>2021/01/13</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 南港站2A月台列車故障
+ 富岡-楊梅 機車故障
 </t>
         </is>
       </c>
@@ -823,7 +823,7 @@
       <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 富岡-楊梅 機車故障
+ 516剛出富岡就掛了
 </t>
         </is>
       </c>
@@ -837,7 +837,7 @@
       <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 516剛出富岡就掛了
+Fw:  淡水信義線全線異常
 </t>
         </is>
       </c>
@@ -845,13 +845,13 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2021/01/13</t>
+          <t>2021/01/14</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fw:  淡水信義線全線異常
+ 運安會發布「0806臺鐵第3231與第129次車
 </t>
         </is>
       </c>
@@ -859,13 +859,13 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2021/01/14</t>
+          <t>2021/01/17</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 運安會發布「0806臺鐵第3231與第129次車
+ 7101 通霄站冒進號誌事故事實資料報告
 </t>
         </is>
       </c>
@@ -873,13 +873,13 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2021/01/17</t>
+          <t>2021/01/21</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 7101 通霄站冒進號誌事故事實資料報告
+ (6.37分發車)4138次暫停松山-旅客送醫
 </t>
         </is>
       </c>
@@ -887,13 +887,13 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2021/01/21</t>
+          <t>2021/01/24</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">
- (6.37分發車)4138次暫停松山-旅客送醫
+ 561次機車故障
 </t>
         </is>
       </c>
@@ -907,7 +907,7 @@
       <c r="B35" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 561次機車故障
+ 2624機車故障 停開
 </t>
         </is>
       </c>
@@ -915,13 +915,13 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2021/01/24</t>
+          <t>2021/01/27</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 2624機車故障 停開
+ 109年12月鐵道建設進度
 </t>
         </is>
       </c>
@@ -935,7 +935,7 @@
       <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 109年12月鐵道建設進度
+ 146埔心落軌事件
 </t>
         </is>
       </c>
@@ -949,7 +949,7 @@
       <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 146埔心落軌事件
+ 埔心死傷事故，南下北上均有延誤
 </t>
         </is>
       </c>
@@ -957,13 +957,13 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021/01/27</t>
+          <t>2021/01/29</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 埔心死傷事故，南下北上均有延誤
+ 電子閘門故障？
 </t>
         </is>
       </c>
@@ -971,13 +971,13 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021/01/29</t>
+          <t>2021/02/01</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 電子閘門故障？
+ 猴硐瑞芳間西正線預定2/3恢復通車
 </t>
         </is>
       </c>
@@ -985,13 +985,13 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021/02/01</t>
+          <t>2021/02/03</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 猴硐瑞芳間西正線預定2/3恢復通車
+ 猴硐-瑞芳通車
 </t>
         </is>
       </c>
@@ -999,13 +999,13 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021/02/03</t>
+          <t>2021/02/06</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 猴硐-瑞芳通車
+ 田中-二水 外物入侵
 </t>
         </is>
       </c>
@@ -1013,13 +1013,13 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2021/02/06</t>
+          <t>2021/02/08</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 田中-二水 外物入侵
+ 區間車霧霾誤點
 </t>
         </is>
       </c>
@@ -1033,7 +1033,7 @@
       <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 區間車霧霾誤點
+ 二水-田中 路線障礙
 </t>
         </is>
       </c>
@@ -1041,13 +1041,13 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021/02/08</t>
+          <t>2021/02/09</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 二水-田中 路線障礙
+ 3238次機車故障
 </t>
         </is>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 3238次機車故障
+ 高鐵發布大學生優惠專案調整公告
 </t>
         </is>
       </c>
@@ -1069,13 +1069,13 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021/02/09</t>
+          <t>2021/02/10</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 高鐵發布大學生優惠專案調整公告
+ 富岡號誌故障
 </t>
         </is>
       </c>
@@ -1083,13 +1083,13 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2021/02/10</t>
+          <t>2021/02/11</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 富岡號誌故障
+ 路線故障(宜蘭線)
 </t>
         </is>
       </c>
@@ -1097,13 +1097,13 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021/02/11</t>
+          <t>2021/02/12</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 路線故障(宜蘭線)
+ 152車次自強號民雄頭橋急停
 </t>
         </is>
       </c>
@@ -1111,13 +1111,13 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2021/02/12</t>
+          <t>2021/02/13</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 152車次自強號民雄頭橋急停
+ 佐賀縣與長崎縣達成並行在來線管理費用共
 </t>
         </is>
       </c>
@@ -1125,13 +1125,13 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2021/02/13</t>
+          <t>2021/02/15</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 佐賀縣與長崎縣達成並行在來線管理費用共
+ 554次莒光後龍機車故障
 </t>
         </is>
       </c>
@@ -1139,13 +1139,13 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2021/02/15</t>
+          <t>2021/02/19</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 554次莒光後龍機車故障
+ 521次 鶯歌桃園間 機車故障
 </t>
         </is>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="B53" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 521次 鶯歌桃園間 機車故障
+ 斗六-斗南 外物入侵
 </t>
         </is>
       </c>
@@ -1167,13 +1167,13 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2021/02/19</t>
+          <t>2021/02/21</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 斗六-斗南 外物入侵
+ 廣島站 新車站大樓意象圖公布
 </t>
         </is>
       </c>
@@ -1181,13 +1181,13 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2021/02/21</t>
+          <t>2021/02/25</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 廣島站 新車站大樓意象圖公布
+ 西武鐵道推出 月繳1200円每天換一瓶茶飲
 </t>
         </is>
       </c>
@@ -1195,13 +1195,13 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2021/02/25</t>
+          <t>2021/02/26</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 西武鐵道推出 月繳1200円每天換一瓶茶飲
+ 本業～～～歸位～～～
 </t>
         </is>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 本業～～～歸位～～～
+ 龜山-大里 死傷事故
 </t>
         </is>
       </c>
@@ -1223,13 +1223,13 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2021/02/26</t>
+          <t>2021/03/02</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 龜山-大里 死傷事故
+ 臺鐵局指定日期變更車種
 </t>
         </is>
       </c>
@@ -1237,13 +1237,13 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2021/03/02</t>
+          <t>2021/03/06</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 臺鐵局指定日期變更車種
+ 南澳站號誌故障
 </t>
         </is>
       </c>
@@ -1257,7 +1257,7 @@
       <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 南澳站號誌故障
+ 125次自強故障
 </t>
         </is>
       </c>
@@ -1265,13 +1265,13 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2021/03/06</t>
+          <t>2021/03/10</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 125次自強故障
+ 1121次車門故障（已開）
 </t>
         </is>
       </c>
@@ -1285,7 +1285,7 @@
       <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 1121次車門故障（已開）
+ 彰化站進出口閘門故障。
 </t>
         </is>
       </c>
@@ -1293,13 +1293,13 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2021/03/10</t>
+          <t>2021/03/11</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 彰化站進出口閘門故障。
+ 二水-林內 車輛故障
 </t>
         </is>
       </c>
@@ -1307,13 +1307,13 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2021/03/11</t>
+          <t>2021/03/14</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 二水-林內 車輛故障
+ 554動力異常
 </t>
         </is>
       </c>
@@ -1327,7 +1327,7 @@
       <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 554動力異常
+ 新幹線E4系的新塗裝
 </t>
         </is>
       </c>
@@ -1335,13 +1335,13 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2021/03/14</t>
+          <t>2021/03/15</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 新幹線E4系的新塗裝
+ 114次機車故障
 </t>
         </is>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 114次機車故障
+  109次在楊梅故障
 </t>
         </is>
       </c>
@@ -1363,13 +1363,13 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2021/03/15</t>
+          <t>2021/03/16</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">
-  109次在楊梅故障
+ 純金打造的國鐵185系電車模型
 </t>
         </is>
       </c>
@@ -1377,13 +1377,13 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2021/03/16</t>
+          <t>2021/03/17</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 純金打造的國鐵185系電車模型
+ 臺北站三月台區間車停車位置更改
 </t>
         </is>
       </c>
@@ -1391,13 +1391,55 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2021/03/17</t>
+          <t>2021/03/18</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 臺北站三月台區間車停車位置更改
+ 新幹線車內公用電話服務將在6月終止
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2021/03/19</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 554次 新左營站加掛機車頭
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2021/03/20</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 高鐵1210臨停
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2021/03/21</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 斗六-斗南 平交道事故 （已排除）
 </t>
         </is>
       </c>

--- a/Data/PTT.xlsx
+++ b/Data/PTT.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,7 +431,7 @@
       <c r="B1" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 105機車故障
+ JR西日本將加速裁撤綠窗口業務
 </t>
         </is>
       </c>
@@ -445,7 +445,7 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 鳳鳴車站後天動工
+ 105機車故障
 </t>
         </is>
       </c>
@@ -453,13 +453,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020/12/19</t>
+          <t>2020/12/18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 109年11月鐵道建設進度
+ JR東日本取消20-21跨年通宵運轉
 </t>
         </is>
       </c>
@@ -467,13 +467,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020/12/20</t>
+          <t>2020/12/18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 南澳=漢本間東線鋼軌斷裂事故
+ 鳳鳴車站後天動工
 </t>
         </is>
       </c>
@@ -481,13 +481,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020/12/23</t>
+          <t>2020/12/19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 彰化-台中 號誌故障
+ JR北海道、東日本、東海2021春季改點整理
 </t>
         </is>
       </c>
@@ -495,13 +495,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020/12/25</t>
+          <t>2020/12/19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-  藍白塗裝莒光今晚回送北廠
+ JR西日本2021春季改點整理
 </t>
         </is>
       </c>
@@ -509,13 +509,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020/12/25</t>
+          <t>2020/12/19</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 新幹線エクスプレス予約、スマートEX 規範變更
+ 109年11月鐵道建設進度
 </t>
         </is>
       </c>
@@ -523,13 +523,13 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020/12/26</t>
+          <t>2020/12/20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 今日510次莒光
+ 南澳=漢本間東線鋼軌斷裂事故
 </t>
         </is>
       </c>
@@ -537,13 +537,13 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2020/12/26</t>
+          <t>2020/12/21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 都營地下鐵 大江戶線12/27~1/11起減班3成
+ JR東日本北陸新幹線部分列車車內販賣取消
 </t>
         </is>
       </c>
@@ -551,13 +551,13 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020/12/27</t>
+          <t>2020/12/23</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 都營地下鐵淺草線將全面開始設置月台門
+ 彰化-台中 號誌故障
 </t>
         </is>
       </c>
@@ -565,13 +565,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020/12/28</t>
+          <t>2020/12/25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 收藏臺鐵百年風華 2021鐵道月曆限量開賣 
+  藍白塗裝莒光今晚回送北廠
 </t>
         </is>
       </c>
@@ -579,13 +579,13 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020/12/29</t>
+          <t>2020/12/25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 3231 不明原因一直在慢行
+ 新幹線エクスプレス予約、スマートEX 規範變更
 </t>
         </is>
       </c>
@@ -593,13 +593,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020/12/30</t>
+          <t>2020/12/26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 基隆-七堵 電車線故障
+ 今日510次莒光
 </t>
         </is>
       </c>
@@ -607,13 +607,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020/12/31</t>
+          <t>2020/12/26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 110年臺鐵春節訂票 1/7東部1/8西部
+ 都營地下鐵 大江戶線12/27~1/11起減班3成
 </t>
         </is>
       </c>
@@ -621,13 +621,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020/12/31</t>
+          <t>2020/12/27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 高鐵1538次
+ 都營地下鐵淺草線將全面開始設置月台門
 </t>
         </is>
       </c>
@@ -635,13 +635,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2021/01/02</t>
+          <t>2020/12/28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 高鐵加開8574次全車自由座列車
+ 收藏臺鐵百年風華 2021鐵道月曆限量開賣 
 </t>
         </is>
       </c>
@@ -649,13 +649,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021/01/03</t>
+          <t>2020/12/29</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 1272事故
+ 3231 不明原因一直在慢行
 </t>
         </is>
       </c>
@@ -663,13 +663,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2021/01/03</t>
+          <t>2020/12/30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 內壢-桃園間死傷事故 (已恢復正常)
+ 基隆-七堵 電車線故障
 </t>
         </is>
       </c>
@@ -677,13 +677,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2021/01/06</t>
+          <t>2020/12/31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 號誌故障
+ 110年臺鐵春節訂票 1/7東部1/8西部
 </t>
         </is>
       </c>
@@ -691,13 +691,13 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2021/01/06</t>
+          <t>2020/12/31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 關山-瑞源 號誌故障
+ 高鐵1538次
 </t>
         </is>
       </c>
@@ -705,13 +705,13 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2021/01/06</t>
+          <t>2021/01/02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 新營-林鳳營 外物入侵
+ 高鐵加開8574次全車自由座列車
 </t>
         </is>
       </c>
@@ -719,13 +719,13 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2021/01/07</t>
+          <t>2021/01/03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 鳳林-南平 外物入侵
+ 1272事故
 </t>
         </is>
       </c>
@@ -733,13 +733,13 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2021/01/08</t>
+          <t>2021/01/03</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 74次 4144次機車故障
+ 內壢-桃園間死傷事故 (已恢復正常)
 </t>
         </is>
       </c>
@@ -747,13 +747,13 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2021/01/08</t>
+          <t>2021/01/06</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 台灣高鐵2021春節疏運 加開441班次列車 1
+ 號誌故障
 </t>
         </is>
       </c>
@@ -761,13 +761,13 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2021/01/08</t>
+          <t>2021/01/06</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 「搭臺鐵　回家鄉、遊花東」大專生指定
+ 關山-瑞源 號誌故障
 </t>
         </is>
       </c>
@@ -775,13 +775,13 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2021/01/09</t>
+          <t>2021/01/06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 1147次南港後停駛
+ 新營-林鳳營 外物入侵
 </t>
         </is>
       </c>
@@ -789,13 +789,13 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2021/01/09</t>
+          <t>2021/01/07</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 南港站2A月台列車故障
+ 年末期間JR各社旅客運輸量
 </t>
         </is>
       </c>
@@ -803,13 +803,13 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2021/01/13</t>
+          <t>2021/01/07</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 富岡-楊梅 機車故障
+ 鳳林-南平 外物入侵
 </t>
         </is>
       </c>
@@ -817,13 +817,13 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2021/01/13</t>
+          <t>2021/01/08</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 516剛出富岡就掛了
+ 74次 4144次機車故障
 </t>
         </is>
       </c>
@@ -831,13 +831,13 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2021/01/13</t>
+          <t>2021/01/08</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fw:  淡水信義線全線異常
+ 台灣高鐵2021春節疏運 加開441班次列車 1
 </t>
         </is>
       </c>
@@ -845,13 +845,13 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2021/01/14</t>
+          <t>2021/01/08</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 運安會發布「0806臺鐵第3231與第129次車
+ 「搭臺鐵　回家鄉、遊花東」大專生指定
 </t>
         </is>
       </c>
@@ -859,13 +859,13 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2021/01/17</t>
+          <t>2021/01/09</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 7101 通霄站冒進號誌事故事實資料報告
+ 1147次南港後停駛
 </t>
         </is>
       </c>
@@ -873,13 +873,13 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2021/01/21</t>
+          <t>2021/01/09</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
           <t xml:space="preserve">
- (6.37分發車)4138次暫停松山-旅客送醫
+ 南港站2A月台列車故障
 </t>
         </is>
       </c>
@@ -887,13 +887,13 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2021/01/24</t>
+          <t>2021/01/13</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 561次機車故障
+ 富岡-楊梅 機車故障
 </t>
         </is>
       </c>
@@ -901,13 +901,13 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2021/01/24</t>
+          <t>2021/01/13</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 2624機車故障 停開
+ 516剛出富岡就掛了
 </t>
         </is>
       </c>
@@ -915,13 +915,13 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2021/01/27</t>
+          <t>2021/01/13</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 109年12月鐵道建設進度
+ JR東日本暫停發售グランクラス和部分列車車內販售
 </t>
         </is>
       </c>
@@ -929,13 +929,13 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2021/01/27</t>
+          <t>2021/01/13</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 146埔心落軌事件
+Fw:  淡水信義線全線異常
 </t>
         </is>
       </c>
@@ -943,13 +943,13 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2021/01/27</t>
+          <t>2021/01/14</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 埔心死傷事故，南下北上均有延誤
+ 運安會發布「0806臺鐵第3231與第129次車
 </t>
         </is>
       </c>
@@ -957,13 +957,13 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021/01/29</t>
+          <t>2021/01/17</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 電子閘門故障？
+ 7101 通霄站冒進號誌事故事實資料報告
 </t>
         </is>
       </c>
@@ -971,13 +971,13 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021/02/01</t>
+          <t>2021/01/19</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 猴硐瑞芳間西正線預定2/3恢復通車
+ JR東日本 GV-E197、E493系車組發表
 </t>
         </is>
       </c>
@@ -985,13 +985,13 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021/02/03</t>
+          <t>2021/01/20</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 猴硐-瑞芳通車
+ JR東日本開放交通系IC卡同站進出
 </t>
         </is>
       </c>
@@ -999,13 +999,13 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021/02/06</t>
+          <t>2021/01/20</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 田中-二水 外物入侵
+ JR東日本 奧羽本線 赤岩站廢站
 </t>
         </is>
       </c>
@@ -1013,13 +1013,13 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2021/02/08</t>
+          <t>2021/01/20</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 區間車霧霾誤點
+Fw:  JR羽田機場連通線預定2029營運
 </t>
         </is>
       </c>
@@ -1027,13 +1027,13 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2021/02/08</t>
+          <t>2021/01/21</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 二水-田中 路線障礙
+ (6.37分發車)4138次暫停松山-旅客送醫
 </t>
         </is>
       </c>
@@ -1041,13 +1041,13 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021/02/09</t>
+          <t>2021/01/21</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 3238次機車故障
+ JR東海將量產HC85系電車
 </t>
         </is>
       </c>
@@ -1055,13 +1055,13 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2021/02/09</t>
+          <t>2021/01/24</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 高鐵發布大學生優惠專案調整公告
+ 561次機車故障
 </t>
         </is>
       </c>
@@ -1069,13 +1069,13 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021/02/10</t>
+          <t>2021/01/24</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 富岡號誌故障
+ 2624機車故障 停開
 </t>
         </is>
       </c>
@@ -1083,13 +1083,13 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2021/02/11</t>
+          <t>2021/01/27</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 路線故障(宜蘭線)
+ 109年12月鐵道建設進度
 </t>
         </is>
       </c>
@@ -1097,13 +1097,13 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021/02/12</t>
+          <t>2021/01/27</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 152車次自強號民雄頭橋急停
+ 146埔心落軌事件
 </t>
         </is>
       </c>
@@ -1111,13 +1111,13 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2021/02/13</t>
+          <t>2021/01/27</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 佐賀縣與長崎縣達成並行在來線管理費用共
+ 埔心死傷事故，南下北上均有延誤
 </t>
         </is>
       </c>
@@ -1125,13 +1125,13 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2021/02/15</t>
+          <t>2021/01/28</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 554次莒光後龍機車故障
+ JR東日本完成時速360公里的5G行動通訊
 </t>
         </is>
       </c>
@@ -1139,13 +1139,13 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2021/02/19</t>
+          <t>2021/01/29</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 521次 鶯歌桃園間 機車故障
+ 電子閘門故障？
 </t>
         </is>
       </c>
@@ -1153,13 +1153,13 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2021/02/19</t>
+          <t>2021/02/01</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 斗六-斗南 外物入侵
+ 猴硐瑞芳間西正線預定2/3恢復通車
 </t>
         </is>
       </c>
@@ -1167,13 +1167,13 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2021/02/21</t>
+          <t>2021/02/03</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 廣島站 新車站大樓意象圖公布
+ 猴硐-瑞芳通車
 </t>
         </is>
       </c>
@@ -1181,13 +1181,13 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2021/02/25</t>
+          <t>2021/02/06</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 西武鐵道推出 月繳1200円每天換一瓶茶飲
+ 田中-二水 外物入侵
 </t>
         </is>
       </c>
@@ -1195,13 +1195,13 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2021/02/26</t>
+          <t>2021/02/08</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 本業～～～歸位～～～
+ 區間車霧霾誤點
 </t>
         </is>
       </c>
@@ -1209,13 +1209,13 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2021/02/26</t>
+          <t>2021/02/08</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 龜山-大里 死傷事故
+ 二水-田中 路線障礙
 </t>
         </is>
       </c>
@@ -1223,13 +1223,13 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2021/03/02</t>
+          <t>2021/02/09</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 臺鐵局指定日期變更車種
+ 3238次機車故障
 </t>
         </is>
       </c>
@@ -1237,13 +1237,13 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2021/03/06</t>
+          <t>2021/02/09</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 南澳站號誌故障
+ 高鐵發布大學生優惠專案調整公告
 </t>
         </is>
       </c>
@@ -1251,13 +1251,13 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2021/03/06</t>
+          <t>2021/02/10</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 125次自強故障
+ 富岡號誌故障
 </t>
         </is>
       </c>
@@ -1265,13 +1265,13 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2021/03/10</t>
+          <t>2021/02/11</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 1121次車門故障（已開）
+ 路線故障(宜蘭線)
 </t>
         </is>
       </c>
@@ -1279,13 +1279,13 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2021/03/10</t>
+          <t>2021/02/12</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 彰化站進出口閘門故障。
+ 152車次自強號民雄頭橋急停
 </t>
         </is>
       </c>
@@ -1293,13 +1293,13 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2021/03/11</t>
+          <t>2021/02/13</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 二水-林內 車輛故障
+ 佐賀縣與長崎縣達成並行在來線管理費用共
 </t>
         </is>
       </c>
@@ -1307,13 +1307,13 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2021/03/14</t>
+          <t>2021/02/15</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 554動力異常
+ 554次莒光後龍機車故障
 </t>
         </is>
       </c>
@@ -1321,13 +1321,13 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2021/03/14</t>
+          <t>2021/02/15</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 新幹線E4系的新塗裝
+ JR東日本青森站新站體將在3/27啟用
 </t>
         </is>
       </c>
@@ -1335,13 +1335,13 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2021/03/15</t>
+          <t>2021/02/16</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 114次機車故障
+ JR東日本將開始運用ATO系統進行列車營運
 </t>
         </is>
       </c>
@@ -1349,13 +1349,13 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2021/03/15</t>
+          <t>2021/02/19</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">
-  109次在楊梅故障
+ 521次 鶯歌桃園間 機車故障
 </t>
         </is>
       </c>
@@ -1363,13 +1363,13 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2021/03/16</t>
+          <t>2021/02/19</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 純金打造的國鐵185系電車模型
+ 斗六-斗南 外物入侵
 </t>
         </is>
       </c>
@@ -1377,13 +1377,13 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2021/03/17</t>
+          <t>2021/02/19</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 臺北站三月台區間車停車位置更改
+ JR東日本東北新幹線2/24全線復駛
 </t>
         </is>
       </c>
@@ -1391,13 +1391,13 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2021/03/18</t>
+          <t>2021/02/21</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 新幹線車內公用電話服務將在6月終止
+ 廣島站 新車站大樓意象圖公布
 </t>
         </is>
       </c>
@@ -1405,13 +1405,13 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2021/03/19</t>
+          <t>2021/02/25</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 554次 新左營站加掛機車頭
+ 西武鐵道推出 月繳1200円每天換一瓶茶飲
 </t>
         </is>
       </c>
@@ -1419,13 +1419,13 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2021/03/20</t>
+          <t>2021/02/26</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 高鐵1210臨停
+ 本業～～～歸位～～～
 </t>
         </is>
       </c>
@@ -1433,13 +1433,531 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>2021/02/26</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ JR東日本在福島縣地震的災損狀況
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2021/02/26</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 龜山-大里 死傷事故
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2021/03/02</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 臺鐵局指定日期變更車種
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2021/03/03</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ JR東日本的新幹線大規模整修計畫
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2021/03/06</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 南澳站號誌故障
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2021/03/06</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 125次自強故障
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2021/03/10</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 1121次車門故障（已開）
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2021/03/10</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 彰化站進出口閘門故障。
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2021/03/11</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 二水-林內 車輛故障
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2021/03/14</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 554動力異常
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2021/03/14</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 新幹線E4系的新塗裝
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2021/03/15</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 114次機車故障
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2021/03/15</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  109次在楊梅故障
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2021/03/16</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 純金打造的國鐵185系電車模型
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2021/03/17</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 臺北站三月台區間車停車位置更改
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2021/03/18</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 新幹線車內公用電話服務將在6月終止
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2021/03/19</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 554次 新左營站加掛機車頭
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2021/03/20</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 高鐵1210臨停
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>2021/03/21</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve">
  斗六-斗南 平交道事故 （已排除）
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2021/03/23</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ JR東日本恢復新幹線グランクラス座席服務
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2021/03/26</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ JR東日本維修人員的新制服
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2021/03/27</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 加祿-枋野 電力故障
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2021/04/02</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ EMU3000翻牆照
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2021/04/02</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 台北萬華電車線事故?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2021/04/02</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 板橋=萬華 雙線不通
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2021/04/02</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 萬華＝板橋電力設備異常，區間停止運轉
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2021/04/03</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 清水站電車線掉落
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2021/04/03</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 已恢復 臺中港-清水( 列車延誤 (Delay)) 電力設備故障
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2021/04/03</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 萬華-板橋 電力設備故障
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2021/04/03</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 花蓮小島民宿免費提供事故家屬入住
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2021/04/03</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 桃園=內壢間區間車故障
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2021/04/06</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  台中車站非付費區廁所暫停開放
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2021/04/07</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 152次自強號永康北側急停
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2021/04/09</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 東京地下鐵 2021年事業計畫
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2021/04/09</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 271次平交道事故
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2021/04/11</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 521車次莒光號經海線南下站間停車
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2021/04/14</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 藍DR復駛整修標案決標
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2021/04/14</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ JR東日本與JR北海道開始新幹線貨物定期運
 </t>
         </is>
       </c>

--- a/Data/PTT.xlsx
+++ b/Data/PTT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunlo\Desktop\大學\專題\專題\台鐵誤點\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71097D43-06E5-44FB-B159-DEE988AD101A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E8689C-FB15-4706-88DE-2EBD739BFA3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="165">
   <si>
     <t>2020/12/18</t>
   </si>
@@ -60,14 +60,6 @@
 </t>
   </si>
   <si>
-    <t>2020/12/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-  藍白塗裝莒光今晚回送北廠
-</t>
-  </si>
-  <si>
     <t>2020/12/26</t>
   </si>
   <si>
@@ -76,27 +68,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
- 都營地下鐵 大江戶線12/27~1/11起減班3成
-</t>
-  </si>
-  <si>
-    <t>2020/12/27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 都營地下鐵淺草線將全面開始設置月台門
-</t>
-  </si>
-  <si>
-    <t>2020/12/28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 收藏臺鐵百年風華 2021鐵道月曆限量開賣 
-</t>
-  </si>
-  <si>
     <t>2020/12/29</t>
   </si>
   <si>
@@ -113,27 +84,6 @@
 </t>
   </si>
   <si>
-    <t>2020/12/31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 110年臺鐵春節訂票 1/7東部1/8西部
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 高鐵1538次
-</t>
-  </si>
-  <si>
-    <t>2021/01/02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 高鐵加開8574次全車自由座列車
-</t>
-  </si>
-  <si>
     <t>2021/01/03</t>
   </si>
   <si>
@@ -181,16 +131,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
- 台灣高鐵2021春節疏運 加開441班次列車 1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 「搭臺鐵　回家鄉、遊花東」大專生指定
-</t>
-  </si>
-  <si>
     <t>2021/01/09</t>
   </si>
   <si>
@@ -217,11 +157,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-Fw:  淡水信義線全線異常
-</t>
-  </si>
-  <si>
     <t>2021/01/14</t>
   </si>
   <si>
@@ -277,14 +212,6 @@
 </t>
   </si>
   <si>
-    <t>2021/01/29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 電子閘門故障？
-</t>
-  </si>
-  <si>
     <t>2021/02/01</t>
   </si>
   <si>
@@ -330,11 +257,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
- 高鐵發布大學生優惠專案調整公告
-</t>
-  </si>
-  <si>
     <t>2021/02/10</t>
   </si>
   <si>
@@ -359,14 +281,6 @@
 </t>
   </si>
   <si>
-    <t>2021/02/13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 佐賀縣與長崎縣達成並行在來線管理費用共
-</t>
-  </si>
-  <si>
     <t>2021/02/15</t>
   </si>
   <si>
@@ -388,31 +302,10 @@
 </t>
   </si>
   <si>
-    <t>2021/02/21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 廣島站 新車站大樓意象圖公布
-</t>
-  </si>
-  <si>
-    <t>2021/02/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 西武鐵道推出 月繳1200円每天換一瓶茶飲
-</t>
-  </si>
-  <si>
     <t>2021/02/26</t>
   </si>
   <si>
     <t xml:space="preserve">
- 本業～～～歸位～～～
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
  龜山-大里 死傷事故
 </t>
   </si>
@@ -480,14 +373,6 @@
 </t>
   </si>
   <si>
-    <t>2021/03/16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 純金打造的國鐵185系電車模型
-</t>
-  </si>
-  <si>
     <t>2021/03/17</t>
   </si>
   <si>
@@ -517,14 +402,6 @@
   <si>
     <t xml:space="preserve">
  斗六-斗南 平交道事故 （已排除）
-</t>
-  </si>
-  <si>
-    <t>2021/03/27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 加祿-枋野 電力故障
 </t>
   </si>
   <si>
@@ -1185,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="K123" sqref="K123"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1234,900 +1111,756 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>109</v>
-      </c>
-      <c r="B66" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>119</v>
-      </c>
-      <c r="B71" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B83" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B85" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B86" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B87" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B89" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B90" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B91" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B92" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B93" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="B94" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B95" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B96" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="B97" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B98" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B99" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="B100" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="B101" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="B102" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="B103" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="B104" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B105" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="B106" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B107" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B108" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B109" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B110" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="B111" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="B112" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="B113" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="B114" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B115" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B116" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="B117" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
